--- a/app/Licenciatura_em_Biologia_Marinha.xlsx
+++ b/app/Licenciatura_em_Biologia_Marinha.xlsx
@@ -10,42 +10,37 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet name="20150580" sheetId="2" r:id="rId5"/>
-    <sheet name="20154557" sheetId="3" r:id="rId6"/>
-    <sheet name="20150591" sheetId="4" r:id="rId7"/>
-    <sheet name="20150592" sheetId="5" r:id="rId8"/>
-    <sheet name="20150585" sheetId="6" r:id="rId9"/>
-    <sheet name="20150575" sheetId="7" r:id="rId10"/>
-    <sheet name="20150599" sheetId="8" r:id="rId11"/>
-    <sheet name="20150601" sheetId="9" r:id="rId12"/>
-    <sheet name="20150596" sheetId="10" r:id="rId13"/>
-    <sheet name="20154559" sheetId="11" r:id="rId14"/>
-    <sheet name="20150583" sheetId="12" r:id="rId15"/>
-    <sheet name="20150600" sheetId="13" r:id="rId16"/>
-    <sheet name="20150597" sheetId="14" r:id="rId17"/>
-    <sheet name="20154560" sheetId="15" r:id="rId18"/>
-    <sheet name="20150584" sheetId="16" r:id="rId19"/>
-    <sheet name="20150581" sheetId="17" r:id="rId20"/>
-    <sheet name="20150588" sheetId="18" r:id="rId21"/>
-    <sheet name="20150578" sheetId="19" r:id="rId22"/>
-    <sheet name="20150586" sheetId="20" r:id="rId23"/>
-    <sheet name="20150576" sheetId="21" r:id="rId24"/>
-    <sheet name="20154558" sheetId="22" r:id="rId25"/>
-    <sheet name="20150574" sheetId="23" r:id="rId26"/>
-    <sheet name="20150594" sheetId="24" r:id="rId27"/>
-    <sheet name="20150602" sheetId="25" r:id="rId28"/>
-    <sheet name="20150595" sheetId="26" r:id="rId29"/>
-    <sheet name="20150598" sheetId="27" r:id="rId30"/>
-    <sheet name="20150593" sheetId="28" r:id="rId31"/>
-    <sheet name="20150587" sheetId="29" r:id="rId32"/>
-    <sheet name="20150582" sheetId="30" r:id="rId33"/>
-    <sheet name="20150589" sheetId="31" r:id="rId34"/>
-    <sheet name="20150590" sheetId="32" r:id="rId35"/>
-    <sheet name="20150577" sheetId="33" r:id="rId36"/>
-    <sheet name="20154556" sheetId="34" r:id="rId37"/>
-    <sheet name="20150603" sheetId="35" r:id="rId38"/>
-    <sheet name="20150579" sheetId="36" r:id="rId39"/>
-    <sheet name="Sheet2" sheetId="37" r:id="rId40"/>
-    <sheet name="Sheet3" sheetId="38" r:id="rId41"/>
+    <sheet name="20150591" sheetId="3" r:id="rId6"/>
+    <sheet name="20150592" sheetId="4" r:id="rId7"/>
+    <sheet name="20150585" sheetId="5" r:id="rId8"/>
+    <sheet name="20150575" sheetId="6" r:id="rId9"/>
+    <sheet name="20150599" sheetId="7" r:id="rId10"/>
+    <sheet name="20150601" sheetId="8" r:id="rId11"/>
+    <sheet name="20150596" sheetId="9" r:id="rId12"/>
+    <sheet name="20150583" sheetId="10" r:id="rId13"/>
+    <sheet name="20150600" sheetId="11" r:id="rId14"/>
+    <sheet name="20150597" sheetId="12" r:id="rId15"/>
+    <sheet name="20150584" sheetId="13" r:id="rId16"/>
+    <sheet name="20150581" sheetId="14" r:id="rId17"/>
+    <sheet name="20150588" sheetId="15" r:id="rId18"/>
+    <sheet name="20150578" sheetId="16" r:id="rId19"/>
+    <sheet name="20150586" sheetId="17" r:id="rId20"/>
+    <sheet name="20150576" sheetId="18" r:id="rId21"/>
+    <sheet name="20150574" sheetId="19" r:id="rId22"/>
+    <sheet name="20150594" sheetId="20" r:id="rId23"/>
+    <sheet name="20150602" sheetId="21" r:id="rId24"/>
+    <sheet name="20150595" sheetId="22" r:id="rId25"/>
+    <sheet name="20150598" sheetId="23" r:id="rId26"/>
+    <sheet name="20150593" sheetId="24" r:id="rId27"/>
+    <sheet name="20150587" sheetId="25" r:id="rId28"/>
+    <sheet name="20150582" sheetId="26" r:id="rId29"/>
+    <sheet name="20150589" sheetId="27" r:id="rId30"/>
+    <sheet name="20150590" sheetId="28" r:id="rId31"/>
+    <sheet name="20150577" sheetId="29" r:id="rId32"/>
+    <sheet name="20150603" sheetId="30" r:id="rId33"/>
+    <sheet name="20150579" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -202,9 +197,6 @@
     <t>Lurdes Da .c. V. Nhate</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -223,15 +215,6 @@
     <t>Escola Secundaria de Mafambisse</t>
   </si>
   <si>
-    <t>Thaulo </t>
-  </si>
-  <si>
-    <t>Lucas Simate</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>Sinai</t>
   </si>
   <si>
@@ -247,9 +230,6 @@
     <t>Ana Fernando Machalele</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -280,9 +260,6 @@
     <t>Ema Ali Ernesto</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110300518508Q</t>
   </si>
   <si>
@@ -307,9 +284,6 @@
     <t>Celina Alberto Manuel</t>
   </si>
   <si>
-    <t>Distrito de Nhamatanda</t>
-  </si>
-  <si>
     <t>070104955016A</t>
   </si>
   <si>
@@ -355,9 +329,6 @@
     <t>Ana Tunica Dauce Alfazema</t>
   </si>
   <si>
-    <t>Distrito de Dondo</t>
-  </si>
-  <si>
     <t>Talao de Carta de Conducao</t>
   </si>
   <si>
@@ -418,12 +389,6 @@
     <t>Outra - Prov Maputo</t>
   </si>
   <si>
-    <t>Nhantumbo </t>
-  </si>
-  <si>
-    <t>José Jaime</t>
-  </si>
-  <si>
     <t>Nhantumbo</t>
   </si>
   <si>
@@ -439,9 +404,6 @@
     <t>Veronica Aurelio Monjane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>+258842959104</t>
   </si>
   <si>
@@ -484,9 +446,6 @@
     <t>Alda Joaquim P. Langa</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>041001944869N</t>
   </si>
   <si>
@@ -496,12 +455,6 @@
     <t>Escola Secundaria 25 de Setembro</t>
   </si>
   <si>
-    <t>Mugaduí </t>
-  </si>
-  <si>
-    <t>Lucas Pedro</t>
-  </si>
-  <si>
     <t>Mugabe</t>
   </si>
   <si>
@@ -517,9 +470,6 @@
     <t>Regina Mondhane</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090102301717N</t>
   </si>
   <si>
@@ -541,9 +491,6 @@
     <t>Lazaro Rafael M. Mucueta</t>
   </si>
   <si>
-    <t>Cidade de Nacala-Porto</t>
-  </si>
-  <si>
     <t>+258865014177</t>
   </si>
   <si>
@@ -565,9 +512,6 @@
     <t>Ester Jaime Bandze</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110100996949A</t>
   </si>
   <si>
@@ -592,9 +536,6 @@
     <t>Adelia Manuel</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>032001724289S</t>
   </si>
   <si>
@@ -619,9 +560,6 @@
     <t>Maria Acinta Joaquim Savaio</t>
   </si>
   <si>
-    <t>Distrito de Morrumbala</t>
-  </si>
-  <si>
     <t>+258848286287</t>
   </si>
   <si>
@@ -649,12 +587,6 @@
     <t>+258827864684</t>
   </si>
   <si>
-    <t>José </t>
-  </si>
-  <si>
-    <t>Clácio Alberto</t>
-  </si>
-  <si>
     <t>Joaquim</t>
   </si>
   <si>
@@ -694,9 +626,6 @@
     <t>Alaida Sefane Chibamo</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>081002206364C</t>
   </si>
   <si>
@@ -721,9 +650,6 @@
     <t>Janeta Americo Numaio</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>+258840254491</t>
   </si>
   <si>
@@ -745,9 +671,6 @@
     <t>Candida Antonio Mazive</t>
   </si>
   <si>
-    <t>Distrito de Vilanculos</t>
-  </si>
-  <si>
     <t>081301518703B</t>
   </si>
   <si>
@@ -880,9 +803,6 @@
     <t>Zilda Roberto Balooi</t>
   </si>
   <si>
-    <t>Distrito de Massingir</t>
-  </si>
-  <si>
     <t>091100880071N</t>
   </si>
   <si>
@@ -907,12 +827,6 @@
     <t>+258846228197</t>
   </si>
   <si>
-    <t>Arrota </t>
-  </si>
-  <si>
-    <t>Neto Domingos</t>
-  </si>
-  <si>
     <t>Acub</t>
   </si>
   <si>
@@ -926,9 +840,6 @@
   </si>
   <si>
     <t>Angelina De Sousa Gameiro</t>
-  </si>
-  <si>
-    <t>Cidade de Tete</t>
   </si>
   <si>
     <t>050100849468N</t>
@@ -2191,7 +2102,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150596</v>
+        <v>20150583</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2294,9 +2205,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>64</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2304,7 +2213,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2315,7 +2224,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2324,7 +2233,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2336,15 +2245,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>118</v>
+      <c r="H17" s="20">
+        <v>88739926</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2440,7 +2349,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2467,7 +2376,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -2483,7 +2392,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2734,7 +2643,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -2784,7 +2695,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154559</v>
+        <v>20150600</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2808,7 +2719,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2824,7 +2735,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2839,7 +2750,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -2853,7 +2766,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -2867,7 +2782,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>124</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -2888,7 +2805,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -2897,14 +2816,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -2914,13 +2837,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20">
+        <v>391213</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -3015,7 +2942,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3041,7 +2968,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -3055,7 +2984,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -3357,7 +3288,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150583</v>
+        <v>20150597</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3381,7 +3312,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3397,7 +3328,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3413,7 +3344,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3429,7 +3360,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3445,7 +3376,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3460,9 +3391,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3470,7 +3399,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3481,7 +3410,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3490,7 +3419,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3502,15 +3431,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>88739926</v>
+      <c r="H17" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3606,7 +3535,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3633,7 +3562,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3649,7 +3578,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3952,7 +3881,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150600</v>
+        <v>20150584</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3976,7 +3905,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3992,7 +3921,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4008,7 +3937,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4024,7 +3953,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4040,7 +3969,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4055,9 +3984,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4065,7 +3992,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4076,7 +4003,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4085,7 +4012,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4097,15 +4024,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>391213</v>
+      <c r="H17" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4201,7 +4128,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4228,7 +4155,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4244,7 +4171,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4547,7 +4474,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150597</v>
+        <v>20150581</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4571,7 +4498,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4587,7 +4514,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4603,7 +4530,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4619,7 +4546,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4634,9 +4561,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>142</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -4650,9 +4575,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>143</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4660,7 +4583,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4671,7 +4594,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4680,7 +4603,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4692,7 +4615,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4700,7 +4623,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4796,7 +4719,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4823,7 +4746,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4839,7 +4762,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5090,7 +5013,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -5140,7 +5065,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154560</v>
+        <v>20150588</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5164,7 +5089,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5180,7 +5105,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5195,7 +5120,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>151</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -5209,7 +5136,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -5223,7 +5152,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -5244,7 +5175,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -5253,14 +5186,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -5270,13 +5207,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>154</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -5371,7 +5312,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>58</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5397,7 +5338,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -5411,7 +5354,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>156</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -5713,7 +5658,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150584</v>
+        <v>20150578</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5737,7 +5682,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5753,7 +5698,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5769,7 +5714,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5785,7 +5730,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5801,7 +5746,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5816,9 +5761,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>154</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5826,7 +5769,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5837,7 +5780,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5846,7 +5789,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5858,7 +5801,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5866,7 +5809,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5962,7 +5905,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5989,7 +5932,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6005,7 +5948,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6308,7 +6251,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150581</v>
+        <v>20150586</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6332,7 +6275,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6348,7 +6291,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6364,7 +6307,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6380,7 +6323,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6395,7 +6338,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>169</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -6409,9 +6354,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>162</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6419,7 +6362,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6430,7 +6373,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6439,7 +6382,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6451,15 +6394,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>66</v>
+      <c r="H17" s="20">
+        <v>40801443636</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6555,7 +6498,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6582,7 +6525,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6598,7 +6541,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6901,7 +6844,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150588</v>
+        <v>20150576</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6925,7 +6868,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6941,7 +6884,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6957,7 +6900,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6973,7 +6916,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6989,7 +6932,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7004,9 +6947,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>170</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7014,7 +6955,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7025,7 +6966,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7034,7 +6975,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7046,7 +6987,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7054,7 +6995,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7150,7 +7091,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7193,7 +7134,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>173</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7496,7 +7437,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150578</v>
+        <v>20150574</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7520,7 +7461,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7536,7 +7477,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7552,7 +7493,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7568,7 +7509,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7584,7 +7525,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7599,9 +7540,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>179</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7609,7 +7548,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7620,7 +7559,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7629,7 +7568,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7641,7 +7580,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7649,7 +7588,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7745,7 +7684,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7772,7 +7711,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7788,7 +7727,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8194,9 +8133,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8204,7 +8141,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8215,7 +8152,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8224,7 +8161,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8236,7 +8173,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8340,7 +8277,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8383,7 +8320,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8686,7 +8623,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150586</v>
+        <v>20150594</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8710,7 +8647,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8726,7 +8663,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8742,7 +8679,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8758,7 +8695,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8774,7 +8711,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8789,9 +8726,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>188</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8799,7 +8734,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8810,7 +8745,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8819,7 +8754,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8831,15 +8766,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>40801443636</v>
+      <c r="H17" s="20" t="s">
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8935,7 +8870,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8962,7 +8897,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8978,7 +8913,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9281,7 +9216,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150576</v>
+        <v>20150602</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9305,7 +9240,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9321,7 +9256,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9337,7 +9272,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9353,7 +9288,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9369,7 +9304,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9384,9 +9319,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>170</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9394,7 +9327,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9405,7 +9338,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9414,7 +9347,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9426,15 +9359,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>196</v>
+      <c r="H17" s="20">
+        <v>2431902</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9530,7 +9463,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9573,7 +9506,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9824,7 +9757,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -9874,7 +9809,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154558</v>
+        <v>20150595</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9898,7 +9833,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9914,7 +9849,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9929,7 +9864,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>204</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -9943,7 +9880,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -9957,7 +9896,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>206</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -9978,7 +9919,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -9987,14 +9930,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -10004,13 +9951,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>207</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -10105,7 +10056,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10131,7 +10082,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -10145,7 +10098,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>209</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -10447,7 +10402,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150574</v>
+        <v>20150598</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10471,7 +10426,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10487,7 +10442,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10503,7 +10458,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10519,7 +10474,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10535,7 +10490,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10550,9 +10505,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10560,7 +10513,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10571,7 +10524,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10580,7 +10533,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10592,15 +10545,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>205</v>
+      <c r="H17" s="20">
+        <v>80068027</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10696,7 +10649,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10739,7 +10692,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11042,7 +10995,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150594</v>
+        <v>20150593</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11066,7 +11019,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11082,7 +11035,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11098,7 +11051,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11114,7 +11067,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11130,7 +11083,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11145,9 +11098,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>213</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11155,7 +11106,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11166,7 +11117,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11175,7 +11126,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11187,7 +11138,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11195,7 +11146,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11291,7 +11242,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11334,7 +11285,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11637,7 +11588,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150602</v>
+        <v>20150587</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11661,7 +11612,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11677,7 +11628,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11693,7 +11644,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11709,7 +11660,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11725,7 +11676,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11740,9 +11691,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>222</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11750,7 +11699,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11761,7 +11710,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11770,7 +11719,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11782,15 +11731,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>2431902</v>
+      <c r="H17" s="20" t="s">
+        <v>229</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11886,7 +11835,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11913,7 +11862,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11929,7 +11878,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12232,7 +12181,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150595</v>
+        <v>20150582</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12256,7 +12205,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12272,7 +12221,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12288,7 +12237,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12304,7 +12253,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12320,7 +12269,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12335,9 +12284,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>230</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12345,7 +12292,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12356,7 +12303,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12365,7 +12312,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12377,7 +12324,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12385,7 +12332,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12481,7 +12428,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12508,7 +12455,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12524,7 +12471,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12827,7 +12774,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150598</v>
+        <v>20150589</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12851,7 +12798,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12867,7 +12814,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12883,7 +12830,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12899,7 +12846,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12915,7 +12862,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12930,9 +12877,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>230</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12940,7 +12885,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12951,7 +12896,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12960,7 +12905,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12972,15 +12917,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>80068027</v>
+      <c r="H17" s="20" t="s">
+        <v>244</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13076,7 +13021,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13119,7 +13064,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>240</v>
+        <v>112</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13422,7 +13367,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150593</v>
+        <v>20150590</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13446,7 +13391,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13462,7 +13407,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13478,7 +13423,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13494,7 +13439,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13510,7 +13455,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13525,9 +13470,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>143</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13535,7 +13478,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13546,7 +13489,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13555,7 +13498,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13567,7 +13510,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13575,7 +13518,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13671,7 +13614,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13698,7 +13641,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13714,7 +13657,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14017,7 +13960,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150587</v>
+        <v>20150577</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14041,7 +13984,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14057,7 +14000,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14073,7 +14016,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14089,7 +14032,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14105,7 +14048,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14120,9 +14063,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>143</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14130,7 +14071,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14141,7 +14082,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14150,7 +14091,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14162,15 +14103,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>253</v>
+      <c r="H17" s="20">
+        <v>40101114184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14266,7 +14207,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14293,7 +14234,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14309,7 +14250,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14560,7 +14501,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -14610,7 +14553,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154557</v>
+        <v>20150591</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14634,7 +14577,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14650,7 +14593,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14665,7 +14608,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -14679,7 +14624,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -14693,7 +14640,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -14714,7 +14663,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -14723,14 +14674,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -14740,13 +14695,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -14841,7 +14800,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14867,7 +14826,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -14881,7 +14842,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -15183,7 +15146,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150582</v>
+        <v>20150603</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15207,7 +15170,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15223,7 +15186,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15239,7 +15202,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15255,7 +15218,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15271,7 +15234,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15286,9 +15249,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>128</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15296,7 +15257,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15307,7 +15268,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15316,7 +15277,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15328,7 +15289,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15336,7 +15297,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15432,7 +15393,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15459,7 +15420,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15475,7 +15436,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15778,7 +15739,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150589</v>
+        <v>20150579</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15802,7 +15763,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15818,7 +15779,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15834,7 +15795,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15850,7 +15811,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15866,7 +15827,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15881,9 +15842,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>64</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15891,7 +15850,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15902,7 +15861,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15911,7 +15870,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15923,15 +15882,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>268</v>
+      <c r="H17" s="20">
+        <v>1061747</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16027,7 +15986,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16054,7 +16013,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16070,7 +16029,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16273,2957 +16232,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150590</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>277</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2010</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150577</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>40101114184</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154556</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150603</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>293</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150579</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>1061747</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>300</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2012</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -19247,7 +16255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19380,7 +16388,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150591</v>
+        <v>20150592</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19404,7 +16412,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19420,7 +16428,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19436,7 +16444,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19452,7 +16460,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19468,7 +16476,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19483,9 +16491,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>64</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19493,7 +16499,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19504,7 +16510,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19513,7 +16519,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19525,7 +16531,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19533,7 +16539,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19629,7 +16635,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19656,7 +16662,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19672,7 +16678,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19975,7 +16981,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150592</v>
+        <v>20150585</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19999,7 +17005,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20015,7 +17021,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20031,7 +17037,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20047,7 +17053,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20063,7 +17069,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20078,9 +17084,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>75</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20088,7 +17092,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20099,7 +17103,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20108,7 +17112,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20120,7 +17124,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20128,7 +17132,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20224,7 +17228,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20251,7 +17255,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20267,7 +17271,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20570,7 +17574,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150585</v>
+        <v>20150575</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20594,7 +17598,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20610,7 +17614,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20626,7 +17630,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20642,7 +17646,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20658,7 +17662,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20673,9 +17677,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>84</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20683,7 +17685,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20694,7 +17696,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20703,7 +17705,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20715,15 +17717,15 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>85</v>
+      <c r="H17" s="20">
+        <v>844478715</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20846,7 +17848,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21165,7 +18167,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150575</v>
+        <v>20150599</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21268,9 +18270,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>64</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21278,7 +18278,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21289,7 +18289,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21298,7 +18298,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21310,7 +18310,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21318,7 +18318,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20">
-        <v>844478715</v>
+        <v>74922594</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21414,7 +18414,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21441,7 +18441,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2000</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21457,7 +18457,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21760,7 +18760,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150599</v>
+        <v>20150601</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21784,7 +18784,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21800,7 +18800,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21816,7 +18816,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21832,7 +18832,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21848,7 +18848,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21863,9 +18863,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>100</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21873,7 +18871,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21884,7 +18882,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21893,7 +18891,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21912,8 +18910,8 @@
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20">
-        <v>74922594</v>
+      <c r="H17" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22009,7 +19007,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22036,7 +19034,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22052,7 +19050,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22355,7 +19353,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150601</v>
+        <v>20150596</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22379,7 +19377,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22395,7 +19393,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22411,7 +19409,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22427,7 +19425,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22443,7 +19441,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22458,9 +19456,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>64</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22468,7 +19464,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22479,7 +19475,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22488,7 +19484,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22500,7 +19496,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22631,7 +19627,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
